--- a/diary/2017-5-03(L).xlsx
+++ b/diary/2017-5-03(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>P</t>
   </si>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>Cal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高蛋白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,7 +460,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -495,25 +491,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>3.6</v>
@@ -547,7 +531,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>92</v>
@@ -564,7 +548,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>19.3</v>
@@ -581,7 +565,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>14.5</v>
@@ -598,7 +582,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>11.6</v>
@@ -615,7 +599,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>8.9499999999999993</v>
@@ -633,19 +617,19 @@
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B17)</f>
-        <v>193.54999999999998</v>
+        <v>163.54999999999998</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>85.500000000000014</v>
+        <v>80.500000000000014</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
-        <v>97.570000000000007</v>
+        <v>96.570000000000007</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(B18*4, C18*4, D18*9)</f>
-        <v>1994.3300000000002</v>
+        <v>1845.3300000000002</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F2:F17)</f>
